--- a/data/output/FV2404_FV2310/INVOIC/31007.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31007.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="295">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="295">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -995,6 +995,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U165" totalsRowShown="0">
+  <autoFilter ref="A1:U165"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1284,7 +1314,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8820,5 +8853,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/INVOIC/31007.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31007.xlsx
@@ -1912,7 +1912,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3316,7 +3316,7 @@
         <v>277</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2"/>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3646,7 +3646,7 @@
         <v>278</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5918,22 +5918,22 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>266</v>
       </c>
       <c r="K85" s="6" t="s">
@@ -5942,19 +5942,19 @@
       <c r="L85" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>266</v>
       </c>
       <c r="V85" s="6" t="s">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N139" s="2"/>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9042,7 +9042,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N163" s="2"/>
